--- a/results/Gaia_homogeneous_target_selection_M_earth_2_2025.07.23.xlsx
+++ b/results/Gaia_homogeneous_target_selection_M_earth_2_2025.07.23.xlsx
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>3.652170961142576</v>
+        <v>3.652170961142577</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>5.952271867918356</v>
+        <v>5.952271867918357</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>5.947768672408886</v>
+        <v>5.947768672408884</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>7.478346136538076</v>
+        <v>7.478346136538074</v>
       </c>
     </row>
     <row r="13">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>6.753585334578519</v>
+        <v>6.753585334578522</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>7.435229060298578</v>
+        <v>7.435229060298576</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>7.228567098899185</v>
+        <v>7.228567098899183</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>8.791104886960108</v>
+        <v>8.791104886960111</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>8.196488023769632</v>
+        <v>8.196488023769628</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>5.105783367734122</v>
+        <v>5.105783367734121</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>8.811567976359873</v>
+        <v>8.811567976359871</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>8.607142418062876</v>
+        <v>8.607142418062878</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>8.699460211492761</v>
+        <v>8.699460211492765</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>9.197515891787265</v>
+        <v>9.197515891787267</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>7.601527372616971</v>
+        <v>7.601527372616974</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>8.891570979811476</v>
+        <v>8.89157097981148</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>9.893947947441868</v>
+        <v>9.893947947441871</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>6.74858017749629</v>
+        <v>6.748580177496287</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>8.744719768346879</v>
+        <v>8.744719768346878</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>7.713318653486467</v>
+        <v>7.713318653486466</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         </is>
       </c>
       <c r="AC112" t="n">
-        <v>16.16961333282446</v>
+        <v>16.16961333282445</v>
       </c>
       <c r="AD112" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         </is>
       </c>
       <c r="AC128" t="n">
-        <v>16.95317213092453</v>
+        <v>16.95317213092454</v>
       </c>
       <c r="AD128" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         </is>
       </c>
       <c r="AC140" t="n">
-        <v>17.30031548819084</v>
+        <v>17.30031548819083</v>
       </c>
       <c r="AD140" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="AC144" t="n">
-        <v>16.17231184188678</v>
+        <v>16.17231184188679</v>
       </c>
       <c r="AD144" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         </is>
       </c>
       <c r="AC168" t="n">
-        <v>43.71816825476425</v>
+        <v>43.71816825476424</v>
       </c>
       <c r="AD168" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="AC171" t="n">
-        <v>18.84920748512909</v>
+        <v>18.84920748512908</v>
       </c>
       <c r="AD171" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         </is>
       </c>
       <c r="AC184" t="n">
-        <v>19.30544636899008</v>
+        <v>19.30544636899007</v>
       </c>
       <c r="AD184" t="inlineStr">
         <is>
@@ -22892,7 +22892,7 @@
         </is>
       </c>
       <c r="AC198" t="n">
-        <v>18.94973876661064</v>
+        <v>18.94973876661065</v>
       </c>
       <c r="AD198" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
         </is>
       </c>
       <c r="AC208" t="n">
-        <v>21.1949725259398</v>
+        <v>21.19497252593979</v>
       </c>
       <c r="AD208" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         </is>
       </c>
       <c r="AC213" t="n">
-        <v>20.84568420360296</v>
+        <v>20.84568420360297</v>
       </c>
       <c r="AD213" t="inlineStr">
         <is>
@@ -25368,7 +25368,7 @@
         </is>
       </c>
       <c r="AC220" t="n">
-        <v>20.98635399781122</v>
+        <v>20.98635399781123</v>
       </c>
       <c r="AD220" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         </is>
       </c>
       <c r="AC224" t="n">
-        <v>25.77432945504514</v>
+        <v>25.77432945504515</v>
       </c>
       <c r="AD224" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         </is>
       </c>
       <c r="AC259" t="n">
-        <v>24.6498007781768</v>
+        <v>24.64980077817681</v>
       </c>
       <c r="AD259" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="AC262" t="n">
-        <v>22.46577172146896</v>
+        <v>22.46577172146897</v>
       </c>
       <c r="AD262" t="inlineStr">
         <is>
@@ -30405,7 +30405,7 @@
         </is>
       </c>
       <c r="AC265" t="n">
-        <v>29.19704507130449</v>
+        <v>29.1970450713045</v>
       </c>
       <c r="AD265" t="inlineStr">
         <is>
@@ -35895,7 +35895,7 @@
         </is>
       </c>
       <c r="AC314" t="n">
-        <v>27.02507916812546</v>
+        <v>27.02507916812545</v>
       </c>
       <c r="AD314" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         </is>
       </c>
       <c r="AC316" t="n">
-        <v>20.4570598482258</v>
+        <v>20.45705984822581</v>
       </c>
       <c r="AD316" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         </is>
       </c>
       <c r="AC321" t="n">
-        <v>20.62149380400261</v>
+        <v>20.6214938040026</v>
       </c>
       <c r="AD321" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         </is>
       </c>
       <c r="AC322" t="n">
-        <v>20.62149380400261</v>
+        <v>20.6214938040026</v>
       </c>
       <c r="AD322" t="inlineStr">
         <is>
